--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 19823-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 19823-2019.xlsx", "A 19823-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 19823-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 19823-2019.png", "A 19823-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 19823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 19823-2019.docx", "A 19823-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 19823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 19823-2019.docx", "A 19823-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 19823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 19823-2019.docx", "A 19823-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 19823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 19823-2019.docx", "A 19823-2019")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 25441-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 25441-2022.xlsx", "A 25441-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 25441-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 25441-2022.png", "A 25441-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 25441-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 25441-2022.docx", "A 25441-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 25441-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 25441-2022.docx", "A 25441-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 25441-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 25441-2022.docx", "A 25441-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 25441-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 25441-2022.docx", "A 25441-2022")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,27 +798,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 12618-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 12618-2021.xlsx", "A 12618-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 12618-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 12618-2021.png", "A 12618-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 12618-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 12618-2021.docx", "A 12618-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 12618-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 12618-2021.docx", "A 12618-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 12618-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 12618-2021.docx", "A 12618-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 12618-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 12618-2021.docx", "A 12618-2021")</f>
         <v/>
       </c>
     </row>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -883,27 +883,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 42060-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 42060-2018.xlsx", "A 42060-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 42060-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 42060-2018.png", "A 42060-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 42060-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 42060-2018.docx", "A 42060-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 42060-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 42060-2018.docx", "A 42060-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 42060-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 42060-2018.docx", "A 42060-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 42060-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 42060-2018.docx", "A 42060-2018")</f>
         <v/>
       </c>
     </row>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,27 +973,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 52875-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 52875-2019.xlsx", "A 52875-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 52875-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 52875-2019.png", "A 52875-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 52875-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 52875-2019.docx", "A 52875-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 52875-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 52875-2019.docx", "A 52875-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 52875-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 52875-2019.docx", "A 52875-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 52875-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 52875-2019.docx", "A 52875-2019")</f>
         <v/>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1063,27 +1063,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 14791-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 14791-2020.xlsx", "A 14791-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 14791-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 14791-2020.png", "A 14791-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 14791-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 14791-2020.docx", "A 14791-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 14791-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 14791-2020.docx", "A 14791-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 14791-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 14791-2020.docx", "A 14791-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 14791-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 14791-2020.docx", "A 14791-2020")</f>
         <v/>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1148,27 +1148,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 18853-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 18853-2020.xlsx", "A 18853-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 18853-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 18853-2020.png", "A 18853-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 18853-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 18853-2020.docx", "A 18853-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 18853-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 18853-2020.docx", "A 18853-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 18853-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 18853-2020.docx", "A 18853-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 18853-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 18853-2020.docx", "A 18853-2020")</f>
         <v/>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1233,27 +1233,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 64734-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 64734-2020.xlsx", "A 64734-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 64734-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 64734-2020.png", "A 64734-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 64734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 64734-2020.docx", "A 64734-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 64734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 64734-2020.docx", "A 64734-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 64734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 64734-2020.docx", "A 64734-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 64734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 64734-2020.docx", "A 64734-2020")</f>
         <v/>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1318,27 +1318,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 7814-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 7814-2021.xlsx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 7814-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 7814-2021.png", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 7814-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 7814-2021.docx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 7814-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 7814-2021.docx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 7814-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 7814-2021.docx", "A 7814-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 7814-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 7814-2021.docx", "A 7814-2021")</f>
         <v/>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1403,27 +1403,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 53203-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 53203-2021.xlsx", "A 53203-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 53203-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 53203-2021.png", "A 53203-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 53203-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 53203-2021.docx", "A 53203-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 53203-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 53203-2021.docx", "A 53203-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 53203-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 53203-2021.docx", "A 53203-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 53203-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 53203-2021.docx", "A 53203-2021")</f>
         <v/>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,27 +1493,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 64860-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 64860-2021.xlsx", "A 64860-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 64860-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 64860-2021.png", "A 64860-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 64860-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 64860-2021.docx", "A 64860-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 64860-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 64860-2021.docx", "A 64860-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 64860-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 64860-2021.docx", "A 64860-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 64860-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 64860-2021.docx", "A 64860-2021")</f>
         <v/>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,27 +1578,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 20640-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 20640-2022.xlsx", "A 20640-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 20640-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 20640-2022.png", "A 20640-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 20640-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 20640-2022.docx", "A 20640-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 20640-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 20640-2022.docx", "A 20640-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 20640-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 20640-2022.docx", "A 20640-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 20640-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 20640-2022.docx", "A 20640-2022")</f>
         <v/>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1663,27 +1663,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 16802-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 16802-2023.xlsx", "A 16802-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 16802-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 16802-2023.png", "A 16802-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 16802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 16802-2023.docx", "A 16802-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 16802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 16802-2023.docx", "A 16802-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 16802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 16802-2023.docx", "A 16802-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 16802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 16802-2023.docx", "A 16802-2023")</f>
         <v/>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,27 +1748,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 21101-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 21101-2023.xlsx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 21101-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 21101-2023.png", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 21101-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 21101-2023.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 21101-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 21101-2023.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 21101-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 21101-2023.docx", "A 21101-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 21101-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 21101-2023.docx", "A 21101-2023")</f>
         <v/>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,27 +1833,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 26330-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/artfynd/A 26330-2023.xlsx", "A 26330-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 26330-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/kartor/A 26330-2023.png", "A 26330-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 26330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomål/A 26330-2023.docx", "A 26330-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 26330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/klagomålsmail/A 26330-2023.docx", "A 26330-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 26330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsyn/A 26330-2023.docx", "A 26330-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 26330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARRYDA/tillsynsmail/A 26330-2023.docx", "A 26330-2023")</f>
         <v/>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>

--- a/Översikt HÄRRYDA.xlsx
+++ b/Översikt HÄRRYDA.xlsx
@@ -572,7 +572,7 @@
         <v>43567</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44270</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43353</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43746</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43929</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>44169</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44700</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45033</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45061</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45091</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43315</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43383</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43405</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43405</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43441</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43455</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43486</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43493</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43493</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43496</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43496</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43566</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43567</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43587</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43660</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43733</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43734</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43740</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43800</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43800</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43802</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43804</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43804</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>43804</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43826</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>43865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>43875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>43909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43913</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43913</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43914</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43929</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43957</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44022</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44057</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44081</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44081</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44081</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44105</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44105</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44138</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44167</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44181</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44221</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44221</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44221</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44221</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44221</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44221</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44221</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44221</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44274</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44278</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44286</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44344</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44392</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44508</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44508</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44525</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44547</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44663</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44694</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44697</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44697</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44708</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44826</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44902</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45002</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45030</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>45037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>45037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45061</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45071</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45071</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45107</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45107</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45145</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
